--- a/data/trans_dic/P17A-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P17A-Edad-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.2358442665565074</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.1796167836606543</v>
+        <v>0.1796167836606542</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.1467841939739221</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.08967312885560423</v>
+        <v>0.08461280629720337</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1020561124163645</v>
+        <v>0.1002107728993801</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1298544101329579</v>
+        <v>0.1278235332628013</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.03899670241615816</v>
+        <v>0.03781430241171849</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.149504057769945</v>
+        <v>0.1464407439282998</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1943664308792403</v>
+        <v>0.1910959181160529</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1937725126578624</v>
+        <v>0.195946147390384</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1342799200383331</v>
+        <v>0.1305489097827616</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1248359035257181</v>
+        <v>0.1255142273829095</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1546321372169556</v>
+        <v>0.1539162193191411</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1728716523635332</v>
+        <v>0.174366589316011</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.08924339301763896</v>
+        <v>0.09254418727329063</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1438171654818891</v>
+        <v>0.1440553813663615</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1650870528444814</v>
+        <v>0.1663402226532192</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2034852267143458</v>
+        <v>0.2007889614363156</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.119573462848565</v>
+        <v>0.1173241457772158</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2183079785606001</v>
+        <v>0.2160692189841835</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2732298077753025</v>
+        <v>0.2738984003410898</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2829006684833925</v>
+        <v>0.2783413949162744</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2395240620913685</v>
+        <v>0.2422894036230459</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1708512947729383</v>
+        <v>0.171470932615039</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2053974540346494</v>
+        <v>0.2070305770022549</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2257093574656662</v>
+        <v>0.2259587609173984</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1556407719075787</v>
+        <v>0.158806729311668</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.07914550224312811</v>
+        <v>0.07883120180066254</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1199851231844525</v>
+        <v>0.1196829443963008</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1281841569554485</v>
+        <v>0.1282554466623125</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.131995735583914</v>
+        <v>0.1330664312955083</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2055186446878182</v>
+        <v>0.2071386576143463</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2343360530343717</v>
+        <v>0.2356942756551033</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.246163988094137</v>
+        <v>0.2447952601622151</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1754788189854515</v>
+        <v>0.1849487799844579</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1438907759423612</v>
+        <v>0.1437940260340392</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1826423908155621</v>
+        <v>0.1820573157498325</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.1930090935802944</v>
+        <v>0.1914443766625293</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1669076452552164</v>
+        <v>0.1684510550917711</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1257639659286435</v>
+        <v>0.1223769761082654</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1744848588245124</v>
+        <v>0.1751604340256238</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1877112830238117</v>
+        <v>0.1853253311937407</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2195243556904142</v>
+        <v>0.2219337579713755</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2780384028705572</v>
+        <v>0.2804488029389131</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3104019756110651</v>
+        <v>0.3104934146163945</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.3175532950359176</v>
+        <v>0.3164443130368024</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2588472781570582</v>
+        <v>0.2605983513987248</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1857904187389562</v>
+        <v>0.185136706962321</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2288246451300102</v>
+        <v>0.2296081131560758</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.2416520743711856</v>
+        <v>0.239861301447778</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2302134241853512</v>
+        <v>0.2307047538028448</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1239149219674004</v>
+        <v>0.1208607029397907</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1609249890449399</v>
+        <v>0.1622000950465232</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.183361230371049</v>
+        <v>0.1839739484452543</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1191602256819811</v>
+        <v>0.1167810647730058</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2353683313528571</v>
+        <v>0.2357540927019691</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2384536987167855</v>
+        <v>0.2413234280183419</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2300545727289255</v>
+        <v>0.230190177034924</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.192768669150981</v>
+        <v>0.1886004763040331</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1911607808082297</v>
+        <v>0.1901116126497499</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2093506631480928</v>
+        <v>0.2097614505236388</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.2174329684004989</v>
+        <v>0.2190013158590597</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1630937859561073</v>
+        <v>0.1614782373458566</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1814185327390738</v>
+        <v>0.1785359592342231</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2250383376083122</v>
+        <v>0.2246547441293647</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2489062727773125</v>
+        <v>0.2522070869916574</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1840924520993754</v>
+        <v>0.179428902855532</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.303945016599351</v>
+        <v>0.3046150873828063</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3083900139284579</v>
+        <v>0.3137700651934205</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2981354713506371</v>
+        <v>0.2991804281554686</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2470601187746888</v>
+        <v>0.2458375521544504</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2349031709904625</v>
+        <v>0.2374407205864459</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2551890281995274</v>
+        <v>0.2549059037423055</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2646343045315556</v>
+        <v>0.2682364903377028</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2030309130753516</v>
+        <v>0.2044309764524855</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.2800675901106067</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.2424333380328501</v>
+        <v>0.24243333803285</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.2212014081316464</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1293965931432245</v>
+        <v>0.1240071666086758</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1544631753618068</v>
+        <v>0.1548267160265134</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2212142445533257</v>
+        <v>0.2264390039826119</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1728878227812105</v>
+        <v>0.1724002582728336</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.248045163075977</v>
+        <v>0.2486955788472805</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.276800986785334</v>
+        <v>0.2773017095378764</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2478726361525954</v>
+        <v>0.2452055607758679</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2169904761986852</v>
+        <v>0.2190816621755264</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1953426321589636</v>
+        <v>0.1977928363245149</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2249436657086945</v>
+        <v>0.2231806930604761</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.2451062742259639</v>
+        <v>0.2438232213953544</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2015338971814177</v>
+        <v>0.20270353978885</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1947537392259163</v>
+        <v>0.1905866496553632</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2206053405012185</v>
+        <v>0.2194652797188657</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2940322688580377</v>
+        <v>0.2931020720704166</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2340846051653075</v>
+        <v>0.2362985643512795</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3278312459444169</v>
+        <v>0.3280792426839856</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3572996895782178</v>
+        <v>0.3549948476823525</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3206054033612702</v>
+        <v>0.3164517349253202</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2673646760739268</v>
+        <v>0.2679951639888466</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2495134732190736</v>
+        <v>0.2482799026033631</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2771071099009084</v>
+        <v>0.2760221321904375</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2949737141062968</v>
+        <v>0.2949636619296767</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2425620046094725</v>
+        <v>0.2447011351663843</v>
       </c>
     </row>
     <row r="16">
@@ -1241,7 +1241,7 @@
         <v>0.3491544164861947</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.2462983067035689</v>
+        <v>0.2462983067035688</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.2823270015109307</v>
+        <v>0.2842074216583853</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2618498747904742</v>
+        <v>0.2545369277248029</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2620134467253341</v>
+        <v>0.2576010321165383</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2039793243775583</v>
+        <v>0.1993967246072873</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.3246086386856441</v>
+        <v>0.3273594640732622</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.3164201148295108</v>
+        <v>0.3145681049716132</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.3461367774331201</v>
+        <v>0.3493023272806377</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.231564227682348</v>
+        <v>0.2323962845550782</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.3127742126816992</v>
+        <v>0.3185502890199345</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.3007040169079294</v>
+        <v>0.2975919622804696</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.3165475689493692</v>
+        <v>0.3167282933012174</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.2263420874495263</v>
+        <v>0.2251045572970668</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3761677379178446</v>
+        <v>0.3792141054455334</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3529217839148521</v>
+        <v>0.3508412771407541</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3516687655333239</v>
+        <v>0.3488602872114783</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2658996990053722</v>
+        <v>0.2652917748301227</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.4196838188985775</v>
+        <v>0.4183679865324305</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.4090233694210948</v>
+        <v>0.4079044720610616</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.4410435688821881</v>
+        <v>0.4420970247493271</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2856999055200108</v>
+        <v>0.2878806329567427</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3853571208339695</v>
+        <v>0.3861951793874826</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.363144403376481</v>
+        <v>0.363494676167417</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.3821895737304752</v>
+        <v>0.3805120621293283</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2690780295158118</v>
+        <v>0.2689326368505642</v>
       </c>
     </row>
     <row r="19">
@@ -1353,7 +1353,7 @@
         <v>0.3922946719733315</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>0.2847004588502034</v>
+        <v>0.2847004588502035</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.4704609084660918</v>
@@ -1377,7 +1377,7 @@
         <v>0.4449579212414287</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.2971700925734283</v>
+        <v>0.2971700925734282</v>
       </c>
     </row>
     <row r="20">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.4059813752548441</v>
+        <v>0.406621061604643</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.3781677559536841</v>
+        <v>0.3775058453546388</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.3425053516269765</v>
+        <v>0.3381918420469212</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.2488680844616048</v>
+        <v>0.2441470344311429</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.424100591198577</v>
+        <v>0.4226287964963162</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.3845491818683478</v>
+        <v>0.3828879635982498</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.4391102447090142</v>
+        <v>0.4385694417932827</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.2751807297607643</v>
+        <v>0.2789962950398949</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.4281848546186163</v>
+        <v>0.4288794732758481</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.3961868357816645</v>
+        <v>0.3974802529033419</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.4099371274531141</v>
+        <v>0.4066785243073945</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.2697174465758185</v>
+        <v>0.2740772212370812</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.521174830244815</v>
+        <v>0.5234808669833129</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.4961799089518727</v>
+        <v>0.4995128198812634</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.4489585310355405</v>
+        <v>0.4488571925646946</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.3253855448864002</v>
+        <v>0.3229362328956263</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.5238585671740804</v>
+        <v>0.5242354060702876</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.4887838922210646</v>
+        <v>0.4876523981746307</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.5433504947476558</v>
+        <v>0.5436860601550008</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.3394123260630165</v>
+        <v>0.3412526450634065</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.5035143760496895</v>
+        <v>0.5074188132180836</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.4788949379162728</v>
+        <v>0.4744875682790575</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.4794584395085002</v>
+        <v>0.480247333754371</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.317886453511414</v>
+        <v>0.3247287312150974</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.3846747170781805</v>
+        <v>0.3798941292700676</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.3888455958343222</v>
+        <v>0.3874998931577762</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.3662368017696561</v>
+        <v>0.3682112029403642</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2521590902063606</v>
+        <v>0.2480058826289518</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.4529220539334083</v>
+        <v>0.4439989298040502</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.4368971636001069</v>
+        <v>0.4412879515424721</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.3857614883794357</v>
+        <v>0.3815786715529201</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.2790388529177756</v>
+        <v>0.2801484180752338</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.439697150966383</v>
+        <v>0.4315187485732269</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.4362266284741187</v>
+        <v>0.4407816864918038</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.3898543032203998</v>
+        <v>0.3857728204784992</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.2794706328688421</v>
+        <v>0.2768018206887198</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.5118179164618708</v>
+        <v>0.5121800761253184</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.526534131609545</v>
+        <v>0.5263772514793785</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.4734396019842614</v>
+        <v>0.4797332504152339</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.3333424729761607</v>
+        <v>0.3339365584094726</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.5635174923653573</v>
+        <v>0.5603816374319959</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.5385129614762044</v>
+        <v>0.542617199905994</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.4960744564965346</v>
+        <v>0.4964939091853995</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.3440187714153701</v>
+        <v>0.3448807545833487</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.5230825425679752</v>
+        <v>0.5210468834851212</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.5198445787993794</v>
+        <v>0.5247505049539941</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.470904569642337</v>
+        <v>0.4707486773466172</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.3300955663729693</v>
+        <v>0.3305179319251789</v>
       </c>
     </row>
     <row r="25">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.188984596870275</v>
+        <v>0.1877899669202657</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.213068332819452</v>
+        <v>0.2132870130301244</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.2384655859494653</v>
+        <v>0.236723305624933</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.1814564610639708</v>
+        <v>0.1827995328503909</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.2954308415017589</v>
+        <v>0.2939767912264216</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.308677831206502</v>
+        <v>0.3103808066211563</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.313264744980591</v>
+        <v>0.3116276184714611</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.2368081250021007</v>
+        <v>0.2362203684372849</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.2464243013997297</v>
+        <v>0.2467907261342278</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.265808614686605</v>
+        <v>0.2671231772808317</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.2799963819991649</v>
+        <v>0.2798574871971083</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.2134275925074683</v>
+        <v>0.2135745055365964</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.215520441007571</v>
+        <v>0.2163922453527092</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.2434262325727269</v>
+        <v>0.2444543294601124</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.2679011602449023</v>
+        <v>0.2664725960553062</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.2094255985807232</v>
+        <v>0.211750600881779</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.327921351776446</v>
+        <v>0.3263306962826131</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.342382894504774</v>
+        <v>0.3414555016624367</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.3446118315934932</v>
+        <v>0.3437669903037969</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.2609000281379457</v>
+        <v>0.2621391441648098</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.2680049051078973</v>
+        <v>0.2678165261359747</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.2890686825286609</v>
+        <v>0.2901135118398164</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.3021809935252113</v>
+        <v>0.302632957145449</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.2315648510105043</v>
+        <v>0.2328806131976555</v>
       </c>
     </row>
     <row r="28">
@@ -2011,40 +2011,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>44228</v>
+        <v>41732</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>46248</v>
+        <v>45412</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>54469</v>
+        <v>53617</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>15903</v>
+        <v>15420</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>69892</v>
+        <v>68459</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>82797</v>
+        <v>81403</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>76686</v>
+        <v>77547</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>48678</v>
+        <v>47326</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>119930</v>
+        <v>120582</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>135944</v>
+        <v>135315</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>140928</v>
+        <v>142147</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>68745</v>
+        <v>71287</v>
       </c>
     </row>
     <row r="7">
@@ -2055,40 +2055,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>70933</v>
+        <v>71050</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>74811</v>
+        <v>75379</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>85355</v>
+        <v>84224</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>48761</v>
+        <v>47844</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>102057</v>
+        <v>101010</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>116391</v>
+        <v>116676</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>111959</v>
+        <v>110155</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>86830</v>
+        <v>87833</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>164137</v>
+        <v>164733</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>180574</v>
+        <v>182010</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>184002</v>
+        <v>184206</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>119891</v>
+        <v>122330</v>
       </c>
     </row>
     <row r="8">
@@ -2191,40 +2191,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>58141</v>
+        <v>57910</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>81979</v>
+        <v>81773</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>75692</v>
+        <v>75734</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>62947</v>
+        <v>63458</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>128551</v>
+        <v>129564</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>142570</v>
+        <v>143397</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>138724</v>
+        <v>137953</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>87519</v>
+        <v>92242</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>195706</v>
+        <v>195574</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>235909</v>
+        <v>235153</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>222740</v>
+        <v>220934</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>162841</v>
+        <v>164347</v>
       </c>
     </row>
     <row r="11">
@@ -2235,40 +2235,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>92387</v>
+        <v>89899</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>119216</v>
+        <v>119677</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>110843</v>
+        <v>109434</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>104689</v>
+        <v>105838</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>173911</v>
+        <v>175419</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>188849</v>
+        <v>188905</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>178955</v>
+        <v>178330</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>129099</v>
+        <v>129972</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>252693</v>
+        <v>251804</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>295560</v>
+        <v>296572</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>278876</v>
+        <v>276810</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>224604</v>
+        <v>225084</v>
       </c>
     </row>
     <row r="12">
@@ -2371,40 +2371,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>79140</v>
+        <v>77190</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>109104</v>
+        <v>109968</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>122686</v>
+        <v>123096</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>73979</v>
+        <v>72502</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>161870</v>
+        <v>162136</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>169058</v>
+        <v>171093</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>152155</v>
+        <v>152245</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>119929</v>
+        <v>117336</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>253555</v>
+        <v>252164</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>290360</v>
+        <v>290930</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>289291</v>
+        <v>291378</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>202722</v>
+        <v>200714</v>
       </c>
     </row>
     <row r="15">
@@ -2415,40 +2415,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>115866</v>
+        <v>114025</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>152571</v>
+        <v>152311</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>166542</v>
+        <v>168751</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>114291</v>
+        <v>111396</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>209033</v>
+        <v>209494</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>218641</v>
+        <v>222456</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>197183</v>
+        <v>197874</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>153706</v>
+        <v>152945</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>311575</v>
+        <v>314941</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>353936</v>
+        <v>353543</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>352091</v>
+        <v>356884</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>252363</v>
+        <v>254103</v>
       </c>
     </row>
     <row r="16">
@@ -2551,40 +2551,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>67176</v>
+        <v>64378</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>94936</v>
+        <v>95159</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>142915</v>
+        <v>146290</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>121128</v>
+        <v>120787</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>127903</v>
+        <v>128238</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>170265</v>
+        <v>170573</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>160888</v>
+        <v>159157</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>159804</v>
+        <v>161344</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>202138</v>
+        <v>204674</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>276621</v>
+        <v>274453</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>317443</v>
+        <v>315782</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>289619</v>
+        <v>291300</v>
       </c>
     </row>
     <row r="19">
@@ -2595,40 +2595,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>101106</v>
+        <v>98942</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>135588</v>
+        <v>134887</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>189959</v>
+        <v>189358</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>164004</v>
+        <v>165555</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>169044</v>
+        <v>169171</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>219781</v>
+        <v>218363</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>208098</v>
+        <v>205402</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>196902</v>
+        <v>197366</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>258194</v>
+        <v>256917</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>340768</v>
+        <v>339434</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>382028</v>
+        <v>382015</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>348579</v>
+        <v>351653</v>
       </c>
     </row>
     <row r="20">
@@ -2731,40 +2731,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>109179</v>
+        <v>109906</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>111650</v>
+        <v>108532</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>125221</v>
+        <v>123112</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>124294</v>
+        <v>121502</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>131137</v>
+        <v>132249</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>141693</v>
+        <v>140864</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>171978</v>
+        <v>173551</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>140886</v>
+        <v>141392</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>247309</v>
+        <v>251876</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>262872</v>
+        <v>260152</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>308560</v>
+        <v>308736</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>275629</v>
+        <v>274122</v>
       </c>
     </row>
     <row r="23">
@@ -2775,40 +2775,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>145468</v>
+        <v>146646</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>150482</v>
+        <v>149595</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>168069</v>
+        <v>166727</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>162025</v>
+        <v>161654</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>169546</v>
+        <v>169015</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>183161</v>
+        <v>182660</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>219132</v>
+        <v>219655</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>173822</v>
+        <v>175149</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>304700</v>
+        <v>305363</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>317457</v>
+        <v>317763</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>372546</v>
+        <v>370911</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>327671</v>
+        <v>327494</v>
       </c>
     </row>
     <row r="24">
@@ -2911,40 +2911,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>118404</v>
+        <v>118591</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>116769</v>
+        <v>116565</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>114510</v>
+        <v>113068</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>101143</v>
+        <v>99224</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>145439</v>
+        <v>144934</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>135741</v>
+        <v>135154</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>165879</v>
+        <v>165675</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>120579</v>
+        <v>122251</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>271719</v>
+        <v>272160</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>262182</v>
+        <v>263038</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>291913</v>
+        <v>289593</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>227801</v>
+        <v>231483</v>
       </c>
     </row>
     <row r="27">
@@ -2955,40 +2955,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>152000</v>
+        <v>152673</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>153208</v>
+        <v>154238</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>150100</v>
+        <v>150066</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>132241</v>
+        <v>131245</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>179649</v>
+        <v>179778</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>172534</v>
+        <v>172135</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>205257</v>
+        <v>205384</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>148724</v>
+        <v>149530</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>319522</v>
+        <v>321999</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>316915</v>
+        <v>313998</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>341419</v>
+        <v>341980</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>268484</v>
+        <v>274263</v>
       </c>
     </row>
     <row r="28">
@@ -3091,40 +3091,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>80737</v>
+        <v>79733</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>96704</v>
+        <v>96370</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>94122</v>
+        <v>94630</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>77991</v>
+        <v>76706</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>151234</v>
+        <v>148255</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>169505</v>
+        <v>171208</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>154370</v>
+        <v>152696</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>129526</v>
+        <v>130041</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>239103</v>
+        <v>234656</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>277733</v>
+        <v>280633</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>256199</v>
+        <v>253517</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>216165</v>
+        <v>214100</v>
       </c>
     </row>
     <row r="31">
@@ -3135,40 +3135,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>107422</v>
+        <v>107498</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>130947</v>
+        <v>130908</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>121673</v>
+        <v>123290</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>103100</v>
+        <v>103284</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>188163</v>
+        <v>187116</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>208929</v>
+        <v>210521</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>198514</v>
+        <v>198681</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>159689</v>
+        <v>160089</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>284448</v>
+        <v>283341</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>330970</v>
+        <v>334093</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>309463</v>
+        <v>309360</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>255322</v>
+        <v>255649</v>
       </c>
     </row>
     <row r="32">
@@ -3271,40 +3271,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>618712</v>
+        <v>614801</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>727173</v>
+        <v>727919</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>809436</v>
+        <v>803522</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>640757</v>
+        <v>645500</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>997725</v>
+        <v>992814</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>1094954</v>
+        <v>1100995</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>1110380</v>
+        <v>1104577</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>883443</v>
+        <v>881250</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>1638983</v>
+        <v>1641420</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>1850055</v>
+        <v>1859204</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>1942865</v>
+        <v>1941901</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>1549871</v>
+        <v>1550938</v>
       </c>
     </row>
     <row r="35">
@@ -3315,40 +3315,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>705587</v>
+        <v>708441</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>830780</v>
+        <v>834289</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>909350</v>
+        <v>904501</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>739521</v>
+        <v>747731</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>1107451</v>
+        <v>1102079</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>1214514</v>
+        <v>1211224</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>1221491</v>
+        <v>1218497</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>973320</v>
+        <v>977943</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>1782516</v>
+        <v>1781264</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>2011947</v>
+        <v>2019219</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>2096801</v>
+        <v>2099937</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>1681581</v>
+        <v>1691136</v>
       </c>
     </row>
     <row r="36">
